--- a/Assets/Tables/monsterStatOverride.xlsx
+++ b/Assets/Tables/monsterStatOverride.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE435E-74F7-4850-AD02-AF58D0E764C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74C6989-D1A2-468C-8B99-01B077B16FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{E8BCA59E-C108-4D80-8481-049BF6378FAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="MonsterStatOverride" sheetId="3" r:id="rId1"/>
+    <sheet name="monsterStatOverride" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,25 +36,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>AttackPower</t>
-  </si>
-  <si>
-    <t>BaseHP</t>
-  </si>
-  <si>
-    <t>DefencePower</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-  </si>
-  <si>
-    <t>Shield</t>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,7 +428,7 @@
   <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
